--- a/excel-files/keywords/keywords-list.xlsx
+++ b/excel-files/keywords/keywords-list.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sustantivos</t>
+          <t>keywords</t>
         </is>
       </c>
     </row>

--- a/excel-files/keywords/keywords-list.xlsx
+++ b/excel-files/keywords/keywords-list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,43 +441,919 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Keywords</t>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>keywords</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tocador Contemporáneo Vico Blanco 210 cm TU MESITA</t>
+          <t xml:space="preserve">Gabinete de Baño Alden Muebles Gaudi </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lo siento, pero no puedo generar keywords comerciales</t>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>gabinete, bao, alden, muebles, gaudi, organización de baño</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tocador Contemporáneo Colucci Blanco 230 cm TU MESITA</t>
+          <t>Gabinete de Baño Alden Blanco Muebles Gaudi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inmobiliario, Tocador contemporáneo, Tocador TU MESITA, Tocadores y Percheros, Decoración del hogar, muebles, tocadores blancos, decoración de baño moderna</t>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>gabinete, bao, alden, blanco, muebles, gaudi, organización de baño</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tocador Contemporáneo Federal Blanco Negro 150cm TU MESITA</t>
+          <t>Gabinete de Baño Alden Negro Muebles Gaudi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lo siento, pero no puedo generar una lista completa de keywords comerciales para el producto</t>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>gabinete, bao, alden, negro, muebles, gaudi, organización de baño</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gabinete de Baño Beckett Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>gabinete, bao, beckett, muebles, gaudi, organización de baño</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gabinete de Baño Beckett Grafito Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>gabinete, bao, beckett, grafito, muebles, gaudi, organización de baño</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Gabinete de Baño Brooks Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>gabinete, bao, brooks, muebles, gaudi, organización de baño</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Gabinete de Baño Byron Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>gabinete, bao, byron, muebles, gaudi, organización de baño</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gabinete de Baño Calvin Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>gabinete, bao, calvin, muebles, gaudi, organización de baño</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gabinete de Baño Cormac Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>gabinete, bao, cormac, muebles, gaudi, organización de baño</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Gabinete de Baño Dashiell Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Organización de Baño</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gabinete, bao, dashiell, muebles, gaudi, organización de baño</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Velador Dexter Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>velador, dexter, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Velador Dexter Blanco Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>velador, dexter, blanco, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Velador Dexter Duna Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>velador, dexter, duna, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Velador Dexter Grafito Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>velador, dexter, grafito, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Velador Huck Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>velador, huck, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Velador Huck Habano Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>velador, huck, habano, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Velador Jack Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>velador, jack, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Velador Jack Oceano Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>velador, jack, oceano, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Velador Jack Negro Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>velador, jack, negro, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Velador Jett Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>velador, jett, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Velador Jett Blanco Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>velador, jett, blanco, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Velador Jett Duna Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>velador, jett, duna, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Velador Lincoln Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>velador, lincoln, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Velador Lincoln Blanco Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>velador, lincoln, blanco, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Velador Mavel Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>velador, mavel, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Velador Mavel Amazónico Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Veladores</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>velador, mavel, amazónico, muebles, gaudi, veladores</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Tocador Monty Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>tocador, monty, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Tocador Monty Negro Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>tocador, monty, negro, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Tocador Orson Premium Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>tocador, orson, premium, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Tocador Otis Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>tocador, otis, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tocador Infantil Ryder Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>tocador, infantil, ryder, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Tocador Infantil Ryder Rosa Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>tocador, infantil, ryder, rosa, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tocador Sullivan Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>tocador, sullivan, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tocador Waldo Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>tocador, waldo, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tocador Portatil Watson Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>tocador, portatil, watson, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tocador Zane Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>tocador, zane, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tocador Premium Anais Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>tocador, premium, anais, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tocador Silvi Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>tocador, silvi, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tocador Multifuncional Birdie Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>tocador, multifuncional, birdie, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tocador Multifuncional Birdie Grafito Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>tocador, multifuncional, birdie, grafito, muebles, gaudi, tocadores y percheros</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tocador Multifuncional Birdie Muebles Gaudi</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MUEBLES GAUDI</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Tocadores y Percheros</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>tocador, multifuncional, birdie, muebles, gaudi, tocadores y percheros</t>
         </is>
       </c>
     </row>

--- a/excel-files/keywords/keywords-list.xlsx
+++ b/excel-files/keywords/keywords-list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,909 +451,1261 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>keywords</t>
+          <t>Keywords</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gabinete de Baño Alden Muebles Gaudi </t>
+          <t>Ducca Premium Alimento Para Perros 15Kg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>DUCCA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>gabinete, bao, alden, muebles, gaudi, organización de baño</t>
+          <t>Ducca Premium, alimento para perros, comida para perros, DUCCA, 15Kg, nutrición canina, alimento seco, comida premium, bienestar canino, perros saludables, dieta balanceada, ingredientes de calidad, energía para perros, alimento completo, croquetas para perros, cuidado animal, alimentación adecuada, mejor comida para perros, suplemento nutricional, perros activos.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Alden Blanco Muebles Gaudi</t>
+          <t>Ducca Super Premium Alimento Para Cachorros 15Kg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>DUCCA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>gabinete, bao, alden, blanco, muebles, gaudi, organización de baño</t>
+          <t>Ducca, alimento para cachorros, comida para perros, alimento super premium, perros, cachorros, nutrición canina, 15 kg, comida balanceada, saludable, fórmula especializada, calidad premium, alimentación para mascotas, crecimiento cachorro, desarrollo saludable, ingredientes naturales, sin conservantes, proteína de alta calidad, comida para perros pequeños, dietas para cachorros.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Alden Negro Muebles Gaudi</t>
+          <t>Ducca Super Premium Alimento Para Perro Adulto 15Kg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>DUCCA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>gabinete, bao, alden, negro, muebles, gaudi, organización de baño</t>
+          <t>Ducca, Super Premium, alimento para perro, comida para perros, perro adulto, 15 kg, nutrición canina, dieta balanceada, ingredientes de calidad, alimento seco, salud del perro, energía para perros, croquetas, alimento para mascotas, perros grandes, perros medianos, fórmula especial, bienestar animal, comida premium, cuidado canino.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Beckett Muebles Gaudi</t>
+          <t>Alimento Para Perro Excellent Cordero Piel Sensible 15Kg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>EXCELLENT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>gabinete, bao, beckett, muebles, gaudi, organización de baño</t>
+          <t>alimento para perro, comida para perros, Excellent, cordero, piel sensible, croquetas para perros, alimento hipoalergénico, nutrición canina, 15 kg, comida saludable para perros, dieta especial, perros con alergias, comida premium para perros, fórmula natural, ingredientes de calidad, bienestar canino, sabor cordero, alimento para perros adultos, piensos para perros, alimento balanceado, cuidado de la piel, salud digestiva, comida sin cereales, nutrición especial para piel, alimento completo.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Beckett Grafito Muebles Gaudi</t>
+          <t>Comida Perro Adulto Supercan Carne Cereales Grande 1Kg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>gabinete, bao, beckett, grafito, muebles, gaudi, organización de baño</t>
+          <t>comida perro adulto, comida para perros, Supercan, alimento perros grande, carne y cereales, nutrición canina, comida para perros de alta calidad, pienso perro carne, alimentación perros adultos, comida seca para perros, 1Kg comida perro, dieta equilibrada perros, salud canina, croquetas para perros, alimento perro tamaño grande, comida premium para perros, Supercan 1Kg, fórmula para perros adultos, ingredientes naturales perros.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Brooks Muebles Gaudi</t>
+          <t>Comida Perro Adulto Supercan Carne Cereales Grande 3Kg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>gabinete, bao, brooks, muebles, gaudi, organización de baño</t>
+          <t>comida perro adulto, alimento para perros, Supercan, comida para perros grande, carne y cereales, comida seca para perros, pienso para perros, alimento balanceado, nutrición canina, 3 kg comida perro, fórmula para perros, alimento premium para perros, dieta para perros adultos, comida para mascotas, comida para perros grande, comida con carne, comida con cereales, salud canina, Supercan perros, croquetas para perros.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Byron Muebles Gaudi</t>
+          <t>Comida Perro Adulto Supercan Carne Cereales Grande 15Kg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gabinete, bao, byron, muebles, gaudi, organización de baño</t>
+          <t>comida para perros, Supercan, comida perro adulto, alimento para perros grandes, carne y cereales, 15 kg, alimentación canina, comida seca para perros, pienso para perros, nutrición canina, alimentos premium para perros, perro grande, alimentación saludable para perros, marca Supercan, comida equilibrada para perros, alimento con carne, comida para mascotas, dieta para perros adultos.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Calvin Muebles Gaudi</t>
+          <t>Comida Perro Adulto Supercan Carne Cereales Grande 25Kg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>gabinete, bao, calvin, muebles, gaudi, organización de baño</t>
+          <t>perro adulto, comida para perros, Supercan, alimento canino, carne y cereales, 25 kg, croquetas grandes, nutrición canina, dieta equilibrada, alimento seco, calidad premium, perro grande, alimento para mascotas, croquetas para perros, suculento para perros, proteína de carne, ingredientes naturales, comida saludable para perros, alimentación canina, bienestar animal</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Cormac Muebles Gaudi</t>
+          <t>Comida Perro Adulto Supercan Carne Cereales Pequeña 1Kg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gabinete, bao, cormac, muebles, gaudi, organización de baño</t>
+          <t>comida para perros, alimento perro adulto, Supercan, comida perro carne, pienso perro cereales, perro pequeño, nutrición canina, alimento seco, dieta equilibrada, comida premium para perros, alimento completo para perros, pienso para perros adultos, fórmula para perros pequeños, salud canina, alimento para mascotas, comida para perros de calidad, proteína animal, croquetas para perros, marcas de comida para perros, comida para perros con cereales.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gabinete de Baño Dashiell Muebles Gaudi</t>
+          <t>Comida Perro Adulto Supercan Carne Cereales Pequeña 3Kg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Organización de Baño</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>gabinete, bao, dashiell, muebles, gaudi, organización de baño</t>
+          <t>comida para perros, Supercan, perro adulto, alimento para perros, dieta canina, comida seca, carne y cereales, alimento equilibrado, nutrición canina, croquetas para perros, perro pequeño, bolsa 3 kg, comida premium, salud digestiva, ingredientes naturales, sin conservantes, energía para perros, raza pequeña, alimento rico en proteínas, bienestar animal.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Velador Dexter Muebles Gaudi</t>
+          <t>Comida Perro Adulto Supercan Carne Cereales Pequeña 15Kg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>velador, dexter, muebles, gaudi, veladores</t>
+          <t>comida para perros, Supercan, comida perro adulto, pienso perro carne, alimentos para perros, dieta canina, comida perro pequeña, cereales para perros, nutrición canina, alimento seco para perros, 15kg, pienso grande, salud canina, proteína para perros, comida equilibrada para perros, fórmula para perros adultos, supermercado de mascotas, alimentación saludable para perros, croquetas para perros, comida premium para perros.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Velador Dexter Blanco Muebles Gaudi</t>
+          <t>Comida Perro Adulto Supercan Sabor Carne Cereales 25Kg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>velador, dexter, blanco, muebles, gaudi, veladores</t>
+          <t>comida para perros, alimento para perros adultos, Supercan, sabor carne, croquetas para perros, comida seca para perros, alimento balanceado para perros, 25 kg, perros adultos, alimento con cereales, nutrición canina, comida de calidad, pienso para perros, salud canina, dieta equilibrada para perros, alimentos para mascotas, alimentación saludable para perros, producto para perros, croquetas sabor carne, comida económica para perros.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Velador Dexter Duna Muebles Gaudi</t>
+          <t>Comida Para Cachorro Supercan Carne Leche 1Kg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>velador, dexter, duna, muebles, gaudi, veladores</t>
+          <t>comida para perros, comida para cachorros, Supercan, carne, leche, alimento para perros, comida seca para perros, nutrición canina, 1kg, fórmula balanceada, proteínas para perros, sano y delicioso, alimento premium, comida para mascotas, dieta canina, suplemento alimenticio, sabor carne, salud canina.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Velador Dexter Grafito Muebles Gaudi</t>
+          <t>Comida Para Cachorro Supercan Carne Leche 3Kg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>velador, dexter, grafito, muebles, gaudi, veladores</t>
+          <t>comida para perros, Supercan, comida para cachorro, alimento para perros, carne y leche, nutrición canina, 3 kg, piensos para perros, alimentación saludable, dieta para cachorros, producto para mascotas, comida balanceada, sabor carne, alimento premium, snacks para perros, salud canina, croquetas para perros, alimento seco para perros, perros saludables, bienestar animal</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Velador Huck Muebles Gaudi</t>
+          <t>Comida Para Cachorro Supercan Carne Leche  15Kg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>velador, huck, muebles, gaudi, veladores</t>
+          <t>comida para perros, alimento para perros, Supercan, comida para cachorro, comida para perritos, carne y leche para perros, nutrición canina, comida seca para perros, pienso para perros, alimento balanceado para perros, 15 kg comida para perros, alimento para mascotas, dieta para cachorros, salud canina, sabor a carne y leche, comida premium para perros, alimentación canina, comida para perros adultos, comida para razas grandes, Supercan 15 kg, producto para mascotas.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Velador Huck Habano Muebles Gaudi</t>
+          <t>Comida Para Cachorro Supercan Carne Leche 25Kg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>velador, huck, habano, muebles, gaudi, veladores</t>
+          <t>Comida para perros, Supercan, alimento para cachorros, comida de carne, comida con leche, 25kg, pienso para perros, nutrición canina, alimento premium para perros, dieta balanceada para cachorros, comida seca para perros, alimento nutritivo, salud canina, comida para perros grandes, comida para cachorros con carne, productos para mascotas, alimento para perros de calidad, croquetas para perros, alimentación para mascotas, Supercan cachorro.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Velador Jack Muebles Gaudi</t>
+          <t>Comida Para Perro Adulto Supercan Buffet De Sabores  1Kg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>velador, jack, muebles, gaudi, veladores</t>
+          <t>comida para perros, SUPERCAN, comida para perro adulto, Supercan Buffet, alimento para perros, comida canina, 1kg comida para perros, variedad de sabores, nutrición canina, alimento balanceado, perros adultos, dieta para perros, comida seca para perros, salud canina, productos para mascotas, perros saludables, alimentación para perros, sabor gourmet para perros, comida premium para perros.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Velador Jack Oceano Muebles Gaudi</t>
+          <t>Comida Para Perro Adulto Supercan Buffet De Sabores 3Kg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>velador, jack, oceano, muebles, gaudi, veladores</t>
+          <t>comida para perro, comida para perros adultos, Supercan, alimento para perros, comida seca para perros, perro adulto, dieta canina, alimentación balanceada, sabores variados, 3kg, nutrición para perros, pienso para perros, comida premium para perros, comida para mascotas, alimento saludable para perros, sabor a carne, calidad superior para perros, bienestar canino, perro saludable, snack para perros.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Velador Jack Negro Muebles Gaudi</t>
+          <t>Comida Para Perro Adulto Supercan Buffet De Sabores 15Kg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>velador, jack, negro, muebles, gaudi, veladores</t>
+          <t>comida para perro adulto, Supercan, Buffet de sabores, alimento canino, 15kg, comida para perros, nutrición canina, dieta equilibrada, calidad premium, sabor variado, saludable para perros, alimentos secos, croquetas para perros, bienestar animal, mascota feliz, alimento para perros adultos, superalimentación, marca de confianza, cuidado de la salud canina, perro feliz, comida de calidad, ingredientes naturales.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Velador Jett Muebles Gaudi</t>
+          <t>Comida Para Perro Adulto Supercan Cordero 1Kg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>velador, jett, muebles, gaudi, veladores</t>
+          <t>comida para perros, alimentación canina, Supercan, cordero, comida para perro adulto, 1Kg, comida seca para perros, pienso para perros, nutrición canina, alimento balanceado para perros, salud de perros, comida premium para perros, perros adultos, dieta canina, sabor a cordero, croquetas para perros, alimentos para mascotas, proteína animal, bienestar de perros, sabor natural.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Velador Jett Blanco Muebles Gaudi</t>
+          <t>Comida Para Perro Adulto Supercan Cordero 3Kg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>velador, jett, blanco, muebles, gaudi, veladores</t>
+          <t>comida para perro, alimento para perros, comida para perros adultos, Supercan cordero, comida felina, alimentación canina, perro adulto, pienso para perros, croquetas Supercan, cordero para perros, 3 kg comida para perro, nutrición canina, comida balanceada para perros, alimento premium para perros, dieta para perros, salud canina, comida natural para perros, ingredientes de calidad para perros, Supercan alimento, pienso cordero.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Velador Jett Duna Muebles Gaudi</t>
+          <t>Comida Para Perro Adulto Supercan Cordero 15Kg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>velador, jett, duna, muebles, gaudi, veladores</t>
+          <t>Comida para perros, comida para perro adulto, Supercan, alimento para perros, comida con cordero, dieta para perros, alimento seco para perro, croquetas para perros, comida equilibrada para perros, nutrición canina, perro adulto, cordero como proteína, 15 kg comida perro, salud canina, alimento premium para perros, comida natural para perros, Supercan cordero, comida para perros adultos, alimentos para mascotas, nutrición para perros adultos.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Velador Lincoln Muebles Gaudi</t>
+          <t>Comida Para Cachorro Breeder Premium Cordero 15Kg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>BREEDER</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>velador, lincoln, muebles, gaudi, veladores</t>
+          <t>Comida para perros, comida para cachorros, alimento canino, Breeder, cordero, comida premium para perros, alimento para cachorros, 15kg, nutrición canina, croquetas para perros, dieta para cachorros, alimento balanceado, perro saludable, fórmula específica para cachorros, comida de alta calidad, ingredientes seleccionados, alimento sin subproductos, cachorro feliz, comida para razas pequeñas, comida para razas grandes.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Velador Lincoln Blanco Muebles Gaudi</t>
+          <t>Comida Para Perro Breeder Raza Pequeña Cordero 15 Kg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>BREEDER</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>velador, lincoln, blanco, muebles, gaudi, veladores</t>
+          <t>comida para perros, comida para perros raza pequeña, alimento para perros, cordero para perros, comida para perros Breeder, croquetas para perros, pienso para perros, alimento premium para perros, nutrición canina, dieta para perros pequeños, comida equilibrada para perros, alimento seco para perros, alimentación para perros, fórmula para razas pequeñas, saco de comida para perros, 15 kg comida para perros, comida natural para perros, ingredientes de calidad para perros, salud canina, energía para perros pequeños.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Velador Mavel Muebles Gaudi</t>
+          <t>Comida Para Perro Breeder Cordero 15 Kg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>BREEDER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>velador, mavel, muebles, gaudi, veladores</t>
+          <t>comida para perro, comida para perros, cordero, alimento para perros, comida para mascotas, Breeder, perro, pienso para perros, alimento seco para perros, 15 kg, nutrición canina, dieta para perros, alimento premium, comida natural para perros, ingredientes de calidad, salud del perro, cachorro, perros adultos, sabor cordero, fórmula balanceada, comida para perros a base de carne.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Velador Mavel Amazónico Muebles Gaudi</t>
+          <t>Comida Para Perro Giant Dog Premium Adulto Cordero 15 Kg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>GIANT DOG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Veladores</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>velador, mavel, amazónico, muebles, gaudi, veladores</t>
+          <t>comida para perros, comida para perros adultos, alimento para perros Giant Dog, cordero para perros, comida premium para perros, alimento seco para perros, comida para perros 15 kg, dieta para perros grandes, alimento balanceado para perros, nutrición canina, alimento para perros de raza grande, comida para perros con cordero, comida para perros alta calidad, salud y bienestar canino, alimento para perros adultos con cordero</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tocador Monty Muebles Gaudi</t>
+          <t>Comida Para Cachorro Giant Dog Super Premium Cordero 15 Kg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>GIANT DOG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para perros</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>tocador, monty, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para perros, alimento para perros, comida super premium, comida para cachorros, cordero para perros, GIANT DOG, alimento de calidad, bolsa 15 kg, nutrición canina, comida para perros grandes, dieta para cachorros, alimentación saludable para perros, proteína de cordero, comida seca para perros, proveedor de alimentos para mascotas, alimento equilibrado para perros, salud canina, croquetas para perros, fórmula especial para cachorros, bienestar animal.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tocador Monty Negro Muebles Gaudi</t>
+          <t>Comida Para Gato Adulto Castrado Matisse Salmon 7.5Kg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>MATISSE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>tocador, monty, negro, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gato, comida para gato adulto, comida para gato castrado, comida para gatos Matisse, comida con salmón, alimento para gatos, pienso para gatos, comida seca para gatos, alimento balanceado gatos, nutrición felina, dieta para gatos castrados, salud gato adulto, alimentos premium para gatos, Matisse comida, 7.5 kg comida para gatos, ingredientes de calidad para gatos, bienestar felino, control de peso gato, sabor a salmón para gatos, comida para gatos pequeños.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tocador Orson Premium Muebles Gaudi</t>
+          <t>Comida Para Gato Adulto Supercat Carne Pollo Leche 1Kg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>tocador, orson, premium, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatos, alimento para gatos adultos, Supercat, comida de carne, comida de pollo, comida con leche, alimento balanceado para gatos, 1kg, nutrición felina, piensos para gatos, comida húmeda para gatos, alimento premium para gatos, salud de gatos, croquetas para gatos, dieta para gatos adultos, comida para mascotas, sabor pollo, proteína para gatos, alimento seco para gatos, vitaminas para gatos.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tocador Otis Muebles Gaudi</t>
+          <t>Comida Para Gato Adulto Supercat Carne Pollo Leche 9Kg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>tocador, otis, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatos, comida para gato adulto, Supercat, alimento para gatos, carne de pollo, comida para gato con leche, 9kg, pienso para gatos, nutrición felina, comida balanceada para gatos, alimento seco para gatos, dieta para gatos adultos, gatiendo, supermercado para mascotas, alimento premium para gatos.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tocador Infantil Ryder Muebles Gaudi</t>
+          <t>Comida Para Gato Adulto Supercat Sardina Atun Trucha 1Kg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>tocador, infantil, ryder, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatos, alimento para gatos adultos, SUPERCAT, sardina, atún, trucha, comida húmeda para gatos, nutrición felina, comida balanceada, alimento seco para gatos, 1Kg, gatos saludables, dieta para gatos adultos, sabor a pescado, comida premium para gatos, pienso para gatos, alimento natural para gatos, bienestar felino, sabor irresistible, comida rica en proteínas.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tocador Infantil Ryder Rosa Muebles Gaudi</t>
+          <t>Comida Para Gato Adulto Supercat Sardina Atun Trucha 9Kg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>tocador, infantil, ryder, rosa, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gato adulto, Supercat, sardina, atún, trucha, 9kg, alimento para gatos, pienso para gatos, comida húmeda para gatos, nutrición felina, fórmula equilibrada, sabor pescado, comida saludable, alimento premium para gatos, dieta para gatos, gatos adultos, alimentación natural, comida para mascotas, nutrición completa, croquetas para gatos, alimento rico en proteínas.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tocador Sullivan Muebles Gaudi</t>
+          <t>Comida Para Gato Adulto Supercat Sardina Atun Trucha 15Kg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>tocador, sullivan, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gato adulto, Supercat, sardina, atún, trucha, alimento para gatos, comida seca para gatos, nutrición felina, 15kg, croquetas para gatos, dieta equilibrada para gatos, sabor a pescado, alimento de calidad, bienestar felino, comida premium para gatos, gatos saludables, alimentación de gatos adultos, comida natural para gatos, alimento rico en proteínas, cuidado de mascotas.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tocador Waldo Muebles Gaudi</t>
+          <t>Comida Para Gatito Supercat Carne Leche 1Kg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>tocador, waldo, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatitos, SUPERCAT, alimento para gatos, comida para gatos de carne, comida húmeda para gatitos, nutrición para gatitos, alimento de alta calidad para gatos, 1kg de comida para gatos, comida para gatos con leche, dieta equilibrada para gatitos, alimento con proteínas, salud para gatitos, comida premium para gatos, snacks para gatitos, nutrición felina, comida para cachorros de gato, alimento específico para gatitos.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tocador Portatil Watson Muebles Gaudi</t>
+          <t>Comida Para Gatito Supercat Carne Leche 9Kg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>tocador, portatil, watson, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatitos, Supercat, comida para gatos, alimento para gatos, carne y leche, comida húmeda, alimento balanceado, nutrición para gatitos, croquetas para gatos, dieta para gatitos, 9Kg, alimento rico en proteínas, superalimento para gatos, salud felina, bienestar de gatitos, productos para gatos, snacks para gatos, comida premium, alimentación para mascotas, ingredientes naturales.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tocador Zane Muebles Gaudi</t>
+          <t>Comida Para Gato Adulto Supercat Delicias 1Kg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>tocador, zane, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gato adulto, Supercat, delicias para gatos, alimento para gatos, comida seca para gatos, alimentación felina, croquetas para gatos, comida premium para gatos, nutrientes para gatos, dieta equilibrada para gatos, 1Kg comida para gatos, malta para gatos, salud felina, comida deliciosa para gatos, fórmula para gatos adultos, alimento de calidad para gatos, satisfacción de gatos, gastronomía felina, nutrición para gatos, bienestar de gatos.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tocador Premium Anais Muebles Gaudi</t>
+          <t>Comida Para Gato Adulto Supercat Delicias 3Kg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>tocador, premium, anais, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatos, comida para gato adulto, Supercat, delicias para gatos, alimento seco para gatos, 3 kg, nutrición felina, alimento balanceado, dieta para gatos, comida premium para gatos, salud de gatos, sabor delicioso, gatos saludables, alimentación para mascotas, croquetas para gatos, comida sana para gatos, alimento para gatos adultos, productos para gatos, Supercat alimentos, cuidado felino</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Tocador Silvi Muebles Gaudi</t>
+          <t>Comida Para Gatoadulto Supercat Delicias 9Kg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>tocador, silvi, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatos, comida para gatos adultos, Supercat, Delicias 9Kg, alimento para gatos, nutrición felina, comida balanceada, croquetas para gatos, alimentación saludable, gatos adultos, dieta para gatos, comida seca para gatos, calidad premium, ingredientes naturales, sabor irresistible, comida super premium, bienestar felino, cuidado de mascotas, alimentos para mascotas, croquetas sabor carne.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tocador Multifuncional Birdie Muebles Gaudi</t>
+          <t>Comida Para Gatito Supercat Delicias 1Kg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>tocador, multifuncional, birdie, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatos, alimento para gatitos, Supercat, Delicias, comida húmeda, comida seca, nutrición para gatos, dieta gatuna, alimento para mascotas, 1Kg, vitamins para gatos, alimentos para gatos jóvenes, snacks para gatos, comida balanceada, gatos saludables, alimentación felina, sabor irresistible, control de pelo, desarrollo gatito, comida premium para gatos.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Tocador Multifuncional Birdie Grafito Muebles Gaudi</t>
+          <t>Comida Para Gatito Supercat Delicias 3Kg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>tocador, multifuncional, birdie, grafito, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatitos, Supercat, comida para gatos, alimento para gatitos, delicias para gatos, comida seca para gatos, pienso para gatitos, nutrición felina, alimento premium para gatos, 3 kg comida para gatos, comida saludable para gatitos, dieta equilibrada para gatos, alimento especial para gatitos, snacks para gatos, comida para mascotas, recetas para gatos, alimentos de calidad para gatos, cuidado de gatitos, alimentación animal, productos para gatos.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tocador Multifuncional Birdie Muebles Gaudi</t>
+          <t>Comida Para Gatito Supercat Delicia 9Kg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MUEBLES GAUDI</t>
+          <t>SUPERCAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Tocadores y Percheros</t>
+          <t>Comida para gatos</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>tocador, multifuncional, birdie, muebles, gaudi, tocadores y percheros</t>
+          <t>comida para gatos, comida para gatitos, Supercat, alimento para gatos, alimento para gatitos, comida seca para gatos, dieta para gatitos, nutrición felina, comida para mascotas, alimentación de gatos, gatitos saludables, croquetas para gatos, producto para gatos, 9 kg comida para gatitos, Supercat Delicia, comida premium para gatos, gama de alimentos para gatos, cuidado de gatos, comida rica en proteínas, nutrientes para gatitos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Fancy Fest Comida Humeda Para Gato Grilled Atun 85Gr 6 Un</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANCY FEST </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Comida para gatos</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>comida húmeda para gato, Fancy Fest, Grilled Atún, comida para gatos, alimento húmedo, atún para gatos, pack de 6, nutrición felina, comida premium para gatos, alimentación balanceada, premios para gatos, sabor atún, comida sabrosa, gatos exigentes, cuidado de mascotas, alimento natural, proteínas para gatos, opciones de alimento húmedo, comida deliciosa para gatos, diversidad en alimentos para gatos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fancy Fest Comida Humeda Gato Grilled Con Salmon 85Gr 6 Un</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANCY FEST </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Comida para gatos</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>comida húmeda para gatos, Fancy Fest, comida para gatos, alimento para gatos, pet food, comida para gatos con salmón, comida gourmet para gatos, alimento húmedo, snacks para gatos, lata de comida para gatos, comida premium para gatos, comida deliciosa para gatos, salmón para gatos, 85g, pack de 6, nutrición felina, sabor a salmón, alimentación de gatos, productos para mascotas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Fancy Fest Comida Humeda Gato Pescado Y Camaron 85 Gr 6 Un</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANCY FEST </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Comida para gatos</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>comida húmeda para gatos, Fancy Fest, alimento para gatos, pescado y camarón, comida para mascotas, lata de comida para gatos, dieta equilibrada gato, nutrición felina, pack de comida húmeda, comida para gatos gourmet, proteína para gatos, alimento húmedo, comida premium para gatos, salud felina, gatos exigentes, suplementos para gatos, sabor pescado, sabor camarón, comida húmeda 85 g, productos para gatos</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Fancy Fest Comida Humeda Gato  Flaked De Trucha 85 Gr 6 Un</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANCY FEST </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Comida para gatos</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>comida húmeda para gatos, Fancy Fest, flaked de trucha, comida para gatos, alimento húmedo, snacks para gatos, trucha para gatos, 85 gramos, pack de 6, nutrición felina, alimentación de gatos, comida gourmet para gatos, comida premium, fórmula deliciosa, gato saludable, apetitosa para gatos, ingredientes de calidad, dieta para gatos, alimento húmedo premium</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Fancy Fest Comida Humeda Para Gato Grilled Atun 85Gr 12 Un</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANCY FEST </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Comida para gatos</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>comida húmeda para gatos, Fancy Fest, atún para gatos, comida para gatos, alimento húmedo, comida para gatos de atún, 85g, pack de 12, rendimiento de atún, dieta balanceada, nutrición felina, sabor a pescado, comida gourmet para gatos, alimento húmedo premium, golosinas para gatos, salud digestiva, alimento rico en proteínas, fórmula natural para gatos, comodidad y frescura, variedad de sabores para gatos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Fancy Fest Comida Humeda Gato Grilled Con Salmon 85Gr 12 Un</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANCY FEST </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Comida para gatos</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>comida húmeda gato, Fancy Fest, comida para gatos, salmón, alimento para gatos, 85g, 12 unidades, comida gourmet gato, nutrición felina, alimento húmedo, sabor a salmón, dieta para gatos, opción saludable, alimentos premium gatos, gatisimo, comida deliciosa gato, proteína de salmón, alimentación mascota, productopara gatos, cuidado felino</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Fancy Fest Comida Humeda Gato Pescado Y Camaron 85 Gr 12 Un</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANCY FEST </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Comida para gatos</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>comida húmeda para gatos, Fancy Fest, alimento para gatos, comida para gatos de pescado, comida para gatos de camarón, alimento húmedo para gatos, comida gourmet para gatos, lata de comida para gatos, dietas para gatos, nutrición felina, comida húmeda sabor pescado, comida húmeda sabor camarón, comida premium para gatos, paquete de 12 unidades, 85 gramos, nutrición de gatos, golosinas para gatos, alimento de alta calidad, comida deliciosa para gatos, alimentación consciente para gatos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Fancy Fest Comida Humeda Gato Flaked De Trucha 85 Gr 12 Un</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FANCY FEST </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Comida para gatos</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>comida húmeda para gatos, Fancy Fest, comida para gatos, flaked de trucha, 85 gr, 12 unidades, alimentación felina, comida premium para gatos, golosinas para gatos, nutrición de gatos, trucha para gatos, productos para mascotas, alimentos húmedos para felinos, dieta saludable para gatos, gatos Gourmet, bienestar de gatos, comida natural para gatos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Arena Para Gato Cats Best Original 2.10 Kg</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CAT BEST</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Areneros y arena para gatos</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>arena para gato, Cats Best, arena biodegradable, areneros, arena aglomerante, arena sin polvo, cuidado de gatos, higiene felina, absorbente, producto para mascotas, arena natural, fácil de limpiar, control de olores, tamaño 2.10 kg, marca CAT BEST, arena ecológica, cuidados de gatos, arena para mascotas, comodidad para gatos, salud felina</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Arena Para Gato Cats Best Original 4.30 Kg</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CAT BEST</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Areneros y arena para gatos</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>arena para gato, Cats Best, arena biodegradable, areneros para gatos, arena aglomerante, protección contra olores, 4.30 kg, marca CAT BEST, arena natural para gatos, arena ecológica, cuidado de mascotas, higiene felina, arena de calidad, tanto para gatitos como adultos, fácil de limpiar, absorción eficaz, comodidad para gatos, producto para mascotas, arena sin polvo, arena para cajón de gato.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Arena Para Gato Cats Best Original 8.60 Kg</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CAT BEST</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Areneros y arena para gatos</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>arena para gato, Cats Best Original, arena ecológica, arenero, arena aglomerante, 8.60 kg, marca CAT BEST, arena natural para gatos, control de olores, biodegradable, arena de madera, productos para gatos, cuidado de mascotas, arena para clumping, arena sin polvo, cómoda para gatos, fácil limpieza, higiénica, productos ecológicos para mascotas, arena absorbente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Arena Para Gato Cats Best Sensitive 2.90 Kg</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CAT BEST</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Areneros y arena para gatos</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>arena para gato, Cats Best, arena para gatos, areneros, arena biodegradable, arena aglomerante, arena para gatos sensible, arena de madera, higiene felina, cuidado de mascotas, control de olores, producto ecológico, arena natural, arena sin polvo, 2.90 kg, marca CAT BEST, productos para gatos, arena absorbente, bienestar felino, comodidad para gatos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Arena Para Gato Cats Best Sensitive 7.20 Kg</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CAT BEST</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Areneros y arena para gatos</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>arena para gato, Cats Best Sensitive, 7.20 Kg, areneros para gatos, arena ecológica, arena aglomerante, marca CAT BEST, arena para gatos sensible, productos para mascotas, higiene felina, arena de madera, bajo polvo, control de olores, biodegradable, saludable para gatos, cama para gatos, arena natural, cuidado del gato, comodidad felina, granulado fino.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Arena Para Gato Cats Best Smart Pellets 2.50 Kg</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CAT BEST</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Areneros y arena para gatos</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>arena para gato, Cats Best, Smart Pellets, arena biodegradable, areneros para gatos, arena aglomerante, 2.50 kg, cuidado de mascotas, producto ecológico, arena sin polvo, control de olores, fácil de limpiar, pellets de madera, arena natural, absorción superior, marca CAT BEST, higiénico para gatos, producto para mascotas, arena efectiva, comodidad para gatos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Arena Para Gato Cats Best Smart Pellets 10 Kg</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CAT BEST</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Areneros y arena para gatos</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>arena para gatos, Cats Best, Smart Pellets, arena biodegradable, arenero, arena aglomerante, 10 kg, marca Cat Best, control de olores, fácil limpieza, pellets, arena de madera, sostenible, higiénica, absorción, productos para mascotas, cuidado de gatos, ecológica, neutra en olores, arena natural, comodidad para gatos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Arena Para Gato Cats Best Universal 5.5 Kg</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CAT BEST</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Areneros y arena para gatos</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>arena para gato, Cats Best, arena biodegradable, arena aglomerante, arena para arenero, 5.5 kg, cuidado de gatos, higiénico para gatos, control de olores, absorbente, material natural, arena ecológica, fácil limpieza, arena sin polvo, productos para mascotas, salud del gato, comodidad del gato, mascotas, areneros, cuidado del hogar.</t>
         </is>
       </c>
     </row>
